--- a/Thin Monitor/Thin Monitor/Common/Data.xlsx
+++ b/Thin Monitor/Thin Monitor/Common/Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>RIC</t>
   </si>
@@ -79,12 +79,30 @@
   </si>
   <si>
     <t>AAPL.O</t>
+  </si>
+  <si>
+    <t>BDEV.L</t>
+  </si>
+  <si>
+    <t>BLT.L</t>
+  </si>
+  <si>
+    <t>PSON.L</t>
+  </si>
+  <si>
+    <t>RDSa.L</t>
+  </si>
+  <si>
+    <t>RMG.L</t>
+  </si>
+  <si>
+    <t>RRS.L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,6 +143,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -173,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +227,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,6 +279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,6 +583,36 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Thin Monitor/Thin Monitor/Common/Data.xlsx
+++ b/Thin Monitor/Thin Monitor/Common/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>RIC</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>RRS.L</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -472,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,6 +625,31 @@
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
